--- a/paper_1/data/short_questionnaire_data_150221.xlsx
+++ b/paper_1/data/short_questionnaire_data_150221.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\OneDrive\Dokumente\GitHub\Mandy-PhD\paper_1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{B42FE99A-CBF7-4EDF-BDDD-0058DDCC1CE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{4E763E37-7615-4242-A924-B148A4BF417D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{B42FE99A-CBF7-4EDF-BDDD-0058DDCC1CE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{FE033CEF-A538-485E-AD6B-60217CEACED8}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8136" xr2:uid="{8CF18335-A014-4D58-B979-FFCA93177016}"/>
   </bookViews>
@@ -1239,11 +1239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A7AB70-820C-47B9-A756-61412BF18490}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U995"/>
+  <dimension ref="A1:U994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A30" sqref="A30:A900"/>
     </sheetView>
   </sheetViews>
@@ -1336,7 +1335,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -1401,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -1531,7 +1530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -1661,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41">
         <v>7</v>
       </c>
@@ -1791,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41">
         <v>8</v>
       </c>
@@ -1856,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>9</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -1986,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -2051,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -2181,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -2246,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>16</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>17</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>18</v>
       </c>
@@ -2506,7 +2505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -2636,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>21</v>
       </c>
@@ -2701,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>22</v>
       </c>
@@ -2766,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>23</v>
       </c>
@@ -2831,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>24</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>25</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>26</v>
       </c>
@@ -3026,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>27</v>
       </c>
@@ -3091,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>28</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>32</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>33</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>34</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>35</v>
       </c>
@@ -3611,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="41">
         <v>36</v>
       </c>
@@ -3676,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>37</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>38</v>
       </c>
@@ -3806,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>39</v>
       </c>
@@ -3871,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>40</v>
       </c>
@@ -3936,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>41</v>
       </c>
@@ -4001,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>42</v>
       </c>
@@ -4066,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>43</v>
       </c>
@@ -4131,7 +4130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44</v>
       </c>
@@ -4196,7 +4195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>45</v>
       </c>
@@ -4261,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>46</v>
       </c>
@@ -4326,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>47</v>
       </c>
@@ -4391,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>48</v>
       </c>
@@ -4456,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>49</v>
       </c>
@@ -4521,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="41">
         <v>50</v>
       </c>
@@ -4586,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>51</v>
       </c>
@@ -4651,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>52</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>53</v>
       </c>
@@ -4781,7 +4780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>54</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>55</v>
       </c>
@@ -4911,7 +4910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>56</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>57</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>58</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>59</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>60</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
         <v>61</v>
       </c>
@@ -5301,7 +5300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="21" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="41">
         <v>62</v>
       </c>
@@ -5366,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
         <v>63</v>
       </c>
@@ -5431,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>64</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>65</v>
       </c>
@@ -5561,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>66</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>67</v>
       </c>
@@ -5691,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>68</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>69</v>
       </c>
@@ -5821,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>70</v>
       </c>
@@ -5886,7 +5885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>71</v>
       </c>
@@ -5951,7 +5950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="41">
         <v>72</v>
       </c>
@@ -6016,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>73</v>
       </c>
@@ -6081,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="41">
         <v>74</v>
       </c>
@@ -6146,7 +6145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>75</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>76</v>
       </c>
@@ -6276,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="41">
         <v>77</v>
       </c>
@@ -6341,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>78</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>79</v>
       </c>
@@ -6471,7 +6470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="41">
         <v>80</v>
       </c>
@@ -6536,7 +6535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>81</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="41">
         <v>82</v>
       </c>
@@ -6666,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>83</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="41">
         <v>84</v>
       </c>
@@ -6796,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="41">
         <v>85</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>86</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="41">
         <v>87</v>
       </c>
@@ -6991,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>88</v>
       </c>
@@ -7056,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <v>89</v>
       </c>
@@ -7121,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
         <v>90</v>
       </c>
@@ -7186,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>91</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="41">
         <v>92</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" s="21" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="41">
         <v>93</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
         <v>94</v>
       </c>
@@ -7446,7 +7445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
         <v>95</v>
       </c>
@@ -7511,7 +7510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="41">
         <v>96</v>
       </c>
@@ -7576,7 +7575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <v>97</v>
       </c>
@@ -7641,7 +7640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="41">
         <v>98</v>
       </c>
@@ -7706,7 +7705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="41">
         <v>99</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:21" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="41">
         <v>100</v>
       </c>
@@ -7836,7 +7835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="41">
         <v>101</v>
       </c>
@@ -7901,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="41">
         <v>102</v>
       </c>
@@ -7966,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
         <v>103</v>
       </c>
@@ -8031,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
         <v>104</v>
       </c>
@@ -8096,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="41">
         <v>105</v>
       </c>
@@ -8161,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
         <v>106</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="41">
         <v>107</v>
       </c>
@@ -8291,7 +8290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="41">
         <v>108</v>
       </c>
@@ -8356,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="41">
         <v>109</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="41">
         <v>110</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="41">
         <v>111</v>
       </c>
@@ -8551,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A113" s="41">
         <v>112</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A114" s="41">
         <v>113</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="41">
         <v>114</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="41">
         <v>115</v>
       </c>
@@ -8811,7 +8810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A117" s="41">
         <v>116</v>
       </c>
@@ -8876,7 +8875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A118" s="41">
         <v>117</v>
       </c>
@@ -8941,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="41">
         <v>118</v>
       </c>
@@ -9006,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="41">
         <v>119</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="41">
         <v>120</v>
       </c>
@@ -9136,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="41">
         <v>121</v>
       </c>
@@ -9201,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="41">
         <v>122</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A124" s="41">
         <v>123</v>
       </c>
@@ -9331,7 +9330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" s="21" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" s="21" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A125" s="41">
         <v>124</v>
       </c>
@@ -9396,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="41">
         <v>125</v>
       </c>
@@ -9461,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="41">
         <v>126</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="41">
         <v>127</v>
       </c>
@@ -9591,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="41">
         <v>128</v>
       </c>
@@ -9656,7 +9655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="41">
         <v>129</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="41">
         <v>130</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="41">
         <v>131</v>
       </c>
@@ -9851,7 +9850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="41">
         <v>132</v>
       </c>
@@ -9916,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="41">
         <v>133</v>
       </c>
@@ -9981,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="41">
         <v>134</v>
       </c>
@@ -10046,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="41">
         <v>135</v>
       </c>
@@ -10111,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="41">
         <v>136</v>
       </c>
@@ -10176,7 +10175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="41">
         <v>137</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="41">
         <v>138</v>
       </c>
@@ -10306,7 +10305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="41">
         <v>139</v>
       </c>
@@ -10371,7 +10370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="41">
         <v>140</v>
       </c>
@@ -10436,7 +10435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="41">
         <v>141</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="41">
         <v>142</v>
       </c>
@@ -10566,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="41">
         <v>143</v>
       </c>
@@ -10631,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="41">
         <v>144</v>
       </c>
@@ -10696,7 +10695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="41">
         <v>145</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
         <v>146</v>
       </c>
@@ -10826,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="41">
         <v>147</v>
       </c>
@@ -10891,7 +10890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="41">
         <v>148</v>
       </c>
@@ -10956,7 +10955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="41">
         <v>149</v>
       </c>
@@ -11021,7 +11020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="41">
         <v>150</v>
       </c>
@@ -11086,7 +11085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="41">
         <v>151</v>
       </c>
@@ -11151,7 +11150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="41">
         <v>152</v>
       </c>
@@ -11411,7 +11410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="41">
         <v>156</v>
       </c>
@@ -11476,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="41">
         <v>157</v>
       </c>
@@ -11541,7 +11540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="41">
         <v>158</v>
       </c>
@@ -11606,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="41">
         <v>159</v>
       </c>
@@ -11671,7 +11670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="41">
         <v>160</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="41">
         <v>161</v>
       </c>
@@ -11801,7 +11800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="41">
         <v>162</v>
       </c>
@@ -11866,7 +11865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="41">
         <v>163</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="41">
         <v>164</v>
       </c>
@@ -11996,7 +11995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="41">
         <v>165</v>
       </c>
@@ -12061,7 +12060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="41">
         <v>166</v>
       </c>
@@ -12126,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="41">
         <v>167</v>
       </c>
@@ -12191,7 +12190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="41">
         <v>168</v>
       </c>
@@ -12256,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="41">
         <v>169</v>
       </c>
@@ -12321,7 +12320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="41">
         <v>170</v>
       </c>
@@ -12386,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="41">
         <v>171</v>
       </c>
@@ -12451,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="41">
         <v>172</v>
       </c>
@@ -12516,7 +12515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="41">
         <v>173</v>
       </c>
@@ -12581,7 +12580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="41">
         <v>174</v>
       </c>
@@ -12646,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="41">
         <v>175</v>
       </c>
@@ -12711,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="41">
         <v>176</v>
       </c>
@@ -12776,7 +12775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="41">
         <v>177</v>
       </c>
@@ -12841,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="41">
         <v>178</v>
       </c>
@@ -12906,7 +12905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="41">
         <v>179</v>
       </c>
@@ -12971,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181" s="41">
         <v>180</v>
       </c>
@@ -13036,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="41">
         <v>181</v>
       </c>
@@ -13101,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="41">
         <v>182</v>
       </c>
@@ -13166,7 +13165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="41">
         <v>183</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185" s="41">
         <v>184</v>
       </c>
@@ -13296,7 +13295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186" s="41">
         <v>185</v>
       </c>
@@ -13361,7 +13360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A187" s="41">
         <v>186</v>
       </c>
@@ -13426,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188" s="41">
         <v>187</v>
       </c>
@@ -13491,7 +13490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189" s="41">
         <v>188</v>
       </c>
@@ -13556,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190" s="41">
         <v>189</v>
       </c>
@@ -13621,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191" s="41">
         <v>190</v>
       </c>
@@ -13686,7 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192" s="41">
         <v>191</v>
       </c>
@@ -13751,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193" s="41">
         <v>192</v>
       </c>
@@ -13816,7 +13815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194" s="41">
         <v>193</v>
       </c>
@@ -13881,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195" s="41">
         <v>194</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196" s="41">
         <v>195</v>
       </c>
@@ -14011,7 +14010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197" s="41">
         <v>196</v>
       </c>
@@ -14076,7 +14075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198" s="41">
         <v>197</v>
       </c>
@@ -14141,7 +14140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199" s="41">
         <v>198</v>
       </c>
@@ -14206,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200" s="41">
         <v>199</v>
       </c>
@@ -14271,7 +14270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201" s="41">
         <v>200</v>
       </c>
@@ -14336,7 +14335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="41">
         <v>201</v>
       </c>
@@ -14401,7 +14400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="41">
         <v>202</v>
       </c>
@@ -14466,7 +14465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204" s="41">
         <v>203</v>
       </c>
@@ -14531,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205" s="41">
         <v>204</v>
       </c>
@@ -14596,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206" s="41">
         <v>205</v>
       </c>
@@ -14661,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207" s="41">
         <v>206</v>
       </c>
@@ -14726,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="41">
         <v>207</v>
       </c>
@@ -14791,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="41">
         <v>208</v>
       </c>
@@ -14856,7 +14855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="41">
         <v>209</v>
       </c>
@@ -14921,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="41">
         <v>210</v>
       </c>
@@ -14986,7 +14985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212" s="41">
         <v>211</v>
       </c>
@@ -15051,7 +15050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" s="41">
         <v>212</v>
       </c>
@@ -15116,7 +15115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="41">
         <v>213</v>
       </c>
@@ -15181,7 +15180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="41">
         <v>214</v>
       </c>
@@ -15246,7 +15245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="41">
         <v>215</v>
       </c>
@@ -15311,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="41">
         <v>216</v>
       </c>
@@ -15376,7 +15375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A218" s="41">
         <v>217</v>
       </c>
@@ -15441,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="41">
         <v>218</v>
       </c>
@@ -15506,7 +15505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="41">
         <v>219</v>
       </c>
@@ -15571,7 +15570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="41">
         <v>220</v>
       </c>
@@ -15636,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="41">
         <v>221</v>
       </c>
@@ -15701,7 +15700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="41">
         <v>222</v>
       </c>
@@ -15766,7 +15765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224" s="41">
         <v>223</v>
       </c>
@@ -15831,7 +15830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" s="41">
         <v>224</v>
       </c>
@@ -15896,7 +15895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" s="41">
         <v>225</v>
       </c>
@@ -15961,7 +15960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" s="41">
         <v>226</v>
       </c>
@@ -16026,7 +16025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228" s="41">
         <v>227</v>
       </c>
@@ -16091,7 +16090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229" s="41">
         <v>228</v>
       </c>
@@ -16156,7 +16155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230" s="41">
         <v>229</v>
       </c>
@@ -16221,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231" s="41">
         <v>230</v>
       </c>
@@ -16286,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" s="41">
         <v>231</v>
       </c>
@@ -16351,7 +16350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" s="41">
         <v>232</v>
       </c>
@@ -16416,7 +16415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234" s="41">
         <v>233</v>
       </c>
@@ -16481,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235" s="41">
         <v>234</v>
       </c>
@@ -16546,7 +16545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236" s="41">
         <v>235</v>
       </c>
@@ -16611,7 +16610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A237" s="41">
         <v>236</v>
       </c>
@@ -16676,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238" s="41">
         <v>237</v>
       </c>
@@ -16741,7 +16740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239" s="41">
         <v>238</v>
       </c>
@@ -16806,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" s="41">
         <v>239</v>
       </c>
@@ -16871,7 +16870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" s="41">
         <v>240</v>
       </c>
@@ -16936,7 +16935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" s="41">
         <v>241</v>
       </c>
@@ -17001,7 +17000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" s="41">
         <v>242</v>
       </c>
@@ -17066,7 +17065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" s="41">
         <v>243</v>
       </c>
@@ -17131,7 +17130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" s="41">
         <v>244</v>
       </c>
@@ -17196,7 +17195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" s="41">
         <v>245</v>
       </c>
@@ -17261,7 +17260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" s="41">
         <v>246</v>
       </c>
@@ -17326,7 +17325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" s="41">
         <v>247</v>
       </c>
@@ -17391,7 +17390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A249" s="41">
         <v>248</v>
       </c>
@@ -17456,7 +17455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" s="41">
         <v>249</v>
       </c>
@@ -17521,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" s="41">
         <v>250</v>
       </c>
@@ -17586,7 +17585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" s="41">
         <v>251</v>
       </c>
@@ -17651,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" s="41">
         <v>252</v>
       </c>
@@ -17716,7 +17715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" s="41">
         <v>253</v>
       </c>
@@ -17781,7 +17780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" s="41">
         <v>254</v>
       </c>
@@ -17846,7 +17845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" s="41">
         <v>255</v>
       </c>
@@ -17911,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" s="41">
         <v>256</v>
       </c>
@@ -17976,7 +17975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" s="41">
         <v>257</v>
       </c>
@@ -18041,7 +18040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" s="41">
         <v>258</v>
       </c>
@@ -18106,7 +18105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" s="41">
         <v>259</v>
       </c>
@@ -18171,7 +18170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" s="41">
         <v>260</v>
       </c>
@@ -18236,7 +18235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" s="41">
         <v>261</v>
       </c>
@@ -18301,7 +18300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" s="41">
         <v>262</v>
       </c>
@@ -18366,7 +18365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" s="41">
         <v>263</v>
       </c>
@@ -18431,7 +18430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" s="41">
         <v>264</v>
       </c>
@@ -18496,7 +18495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" s="41">
         <v>265</v>
       </c>
@@ -18561,7 +18560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" s="41">
         <v>266</v>
       </c>
@@ -18626,7 +18625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" s="41">
         <v>267</v>
       </c>
@@ -18691,7 +18690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" s="41">
         <v>268</v>
       </c>
@@ -18756,7 +18755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" s="41">
         <v>269</v>
       </c>
@@ -18821,7 +18820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" s="41">
         <v>270</v>
       </c>
@@ -18886,7 +18885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" s="41">
         <v>271</v>
       </c>
@@ -18951,7 +18950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" s="41">
         <v>272</v>
       </c>
@@ -19016,7 +19015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" s="41">
         <v>273</v>
       </c>
@@ -19081,7 +19080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" s="41">
         <v>274</v>
       </c>
@@ -19146,7 +19145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" s="41">
         <v>275</v>
       </c>
@@ -19211,7 +19210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" s="41">
         <v>276</v>
       </c>
@@ -19471,7 +19470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" s="41">
         <v>280</v>
       </c>
@@ -19536,7 +19535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" s="41">
         <v>281</v>
       </c>
@@ -19601,7 +19600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" s="41">
         <v>282</v>
       </c>
@@ -19666,7 +19665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:21" s="10" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="41">
         <v>283</v>
       </c>
@@ -19731,7 +19730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" s="41">
         <v>284</v>
       </c>
@@ -19796,7 +19795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" s="41">
         <v>285</v>
       </c>
@@ -19861,7 +19860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" s="41">
         <v>286</v>
       </c>
@@ -19926,7 +19925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" s="41">
         <v>287</v>
       </c>
@@ -19991,7 +19990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" s="41">
         <v>288</v>
       </c>
@@ -20056,7 +20055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" s="41">
         <v>289</v>
       </c>
@@ -20121,7 +20120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" s="41">
         <v>290</v>
       </c>
@@ -20186,7 +20185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" s="41">
         <v>291</v>
       </c>
@@ -20251,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" s="41">
         <v>292</v>
       </c>
@@ -20316,7 +20315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" s="41">
         <v>293</v>
       </c>
@@ -20381,7 +20380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" s="41">
         <v>294</v>
       </c>
@@ -20446,7 +20445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" s="41">
         <v>295</v>
       </c>
@@ -20511,7 +20510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" s="41">
         <v>296</v>
       </c>
@@ -20576,7 +20575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" s="41">
         <v>297</v>
       </c>
@@ -20641,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" s="41">
         <v>298</v>
       </c>
@@ -20706,7 +20705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" s="41">
         <v>299</v>
       </c>
@@ -20771,7 +20770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" s="41">
         <v>300</v>
       </c>
@@ -20836,7 +20835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" s="41">
         <v>301</v>
       </c>
@@ -20901,7 +20900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" s="41">
         <v>302</v>
       </c>
@@ -20966,7 +20965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" s="41">
         <v>303</v>
       </c>
@@ -21031,7 +21030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A305" s="41">
         <v>304</v>
       </c>
@@ -21096,7 +21095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A306" s="41">
         <v>305</v>
       </c>
@@ -21161,7 +21160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A307" s="41">
         <v>306</v>
       </c>
@@ -21226,7 +21225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A308" s="41">
         <v>307</v>
       </c>
@@ -21291,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A309" s="41">
         <v>308</v>
       </c>
@@ -21356,7 +21355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A310" s="41">
         <v>309</v>
       </c>
@@ -21421,7 +21420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A311" s="41">
         <v>310</v>
       </c>
@@ -21486,7 +21485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A312" s="41">
         <v>311</v>
       </c>
@@ -21551,7 +21550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A313" s="41">
         <v>312</v>
       </c>
@@ -21616,7 +21615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A314" s="41">
         <v>313</v>
       </c>
@@ -21681,7 +21680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A315" s="41">
         <v>314</v>
       </c>
@@ -21746,7 +21745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A316" s="41">
         <v>315</v>
       </c>
@@ -21811,7 +21810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A317" s="41">
         <v>316</v>
       </c>
@@ -21876,7 +21875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A318" s="41">
         <v>317</v>
       </c>
@@ -21941,7 +21940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A319" s="41">
         <v>318</v>
       </c>
@@ -22006,7 +22005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A320" s="41">
         <v>319</v>
       </c>
@@ -22071,7 +22070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A321" s="41">
         <v>320</v>
       </c>
@@ -22136,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A322" s="41">
         <v>321</v>
       </c>
@@ -22201,7 +22200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A323" s="41">
         <v>322</v>
       </c>
@@ -22266,7 +22265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A324" s="41">
         <v>323</v>
       </c>
@@ -22331,7 +22330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A325" s="41">
         <v>324</v>
       </c>
@@ -22396,7 +22395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A326" s="41">
         <v>325</v>
       </c>
@@ -22461,7 +22460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A327" s="41">
         <v>326</v>
       </c>
@@ -22526,7 +22525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A328" s="41">
         <v>327</v>
       </c>
@@ -22591,7 +22590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A329" s="41">
         <v>328</v>
       </c>
@@ -22656,7 +22655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A330" s="41">
         <v>329</v>
       </c>
@@ -22721,7 +22720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A331" s="41">
         <v>330</v>
       </c>
@@ -22786,7 +22785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A332" s="41">
         <v>331</v>
       </c>
@@ -22851,7 +22850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A333" s="41">
         <v>332</v>
       </c>
@@ -22916,7 +22915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A334" s="41">
         <v>333</v>
       </c>
@@ -22981,7 +22980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A335" s="41">
         <v>334</v>
       </c>
@@ -23046,7 +23045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A336" s="41">
         <v>335</v>
       </c>
@@ -23111,7 +23110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A337" s="41">
         <v>336</v>
       </c>
@@ -23176,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A338" s="41">
         <v>337</v>
       </c>
@@ -23241,7 +23240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A339" s="41">
         <v>338</v>
       </c>
@@ -23306,7 +23305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A340" s="41">
         <v>339</v>
       </c>
@@ -23371,7 +23370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A341" s="41">
         <v>340</v>
       </c>
@@ -23436,7 +23435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="41">
         <v>341</v>
       </c>
@@ -23501,7 +23500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A343" s="41">
         <v>342</v>
       </c>
@@ -23566,7 +23565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A344" s="41">
         <v>343</v>
       </c>
@@ -23631,7 +23630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A345" s="41">
         <v>344</v>
       </c>
@@ -23696,7 +23695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A346" s="41">
         <v>345</v>
       </c>
@@ -23761,7 +23760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A347" s="41">
         <v>346</v>
       </c>
@@ -23826,7 +23825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A348" s="41">
         <v>347</v>
       </c>
@@ -23891,7 +23890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A349" s="41">
         <v>348</v>
       </c>
@@ -23956,7 +23955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A350" s="41">
         <v>349</v>
       </c>
@@ -24021,7 +24020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A351" s="41">
         <v>350</v>
       </c>
@@ -24086,7 +24085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A352" s="41">
         <v>351</v>
       </c>
@@ -24151,7 +24150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A353" s="41">
         <v>352</v>
       </c>
@@ -24216,7 +24215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A354" s="41">
         <v>353</v>
       </c>
@@ -24281,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A355" s="41">
         <v>354</v>
       </c>
@@ -24346,7 +24345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A356" s="41">
         <v>355</v>
       </c>
@@ -24411,7 +24410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A357" s="41">
         <v>356</v>
       </c>
@@ -24476,7 +24475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A358" s="41">
         <v>357</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A359" s="41">
         <v>358</v>
       </c>
@@ -24606,7 +24605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A360" s="41">
         <v>359</v>
       </c>
@@ -24671,7 +24670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A361" s="41">
         <v>360</v>
       </c>
@@ -24736,7 +24735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A362" s="41">
         <v>361</v>
       </c>
@@ -24801,7 +24800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A363" s="41">
         <v>362</v>
       </c>
@@ -24866,7 +24865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A364" s="41">
         <v>363</v>
       </c>
@@ -24931,7 +24930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A365" s="41">
         <v>364</v>
       </c>
@@ -24996,7 +24995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A366" s="41">
         <v>365</v>
       </c>
@@ -25061,7 +25060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A367" s="41">
         <v>366</v>
       </c>
@@ -25126,7 +25125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A368" s="41">
         <v>367</v>
       </c>
@@ -25191,7 +25190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A369" s="41">
         <v>368</v>
       </c>
@@ -25256,7 +25255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A370" s="41">
         <v>369</v>
       </c>
@@ -25321,7 +25320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A371" s="41">
         <v>370</v>
       </c>
@@ -25386,7 +25385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A372" s="41">
         <v>371</v>
       </c>
@@ -25451,7 +25450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A373" s="41">
         <v>372</v>
       </c>
@@ -25516,7 +25515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A374" s="41">
         <v>373</v>
       </c>
@@ -25581,7 +25580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A375" s="41">
         <v>374</v>
       </c>
@@ -25646,7 +25645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A376" s="41">
         <v>375</v>
       </c>
@@ -25711,7 +25710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A377" s="41">
         <v>376</v>
       </c>
@@ -25776,7 +25775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A378" s="41">
         <v>377</v>
       </c>
@@ -25841,7 +25840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A379" s="41">
         <v>378</v>
       </c>
@@ -25906,7 +25905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A380" s="41">
         <v>379</v>
       </c>
@@ -25971,7 +25970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A381" s="41">
         <v>380</v>
       </c>
@@ -26036,7 +26035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A382" s="41">
         <v>381</v>
       </c>
@@ -26101,7 +26100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A383" s="41">
         <v>382</v>
       </c>
@@ -26166,7 +26165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A384" s="41">
         <v>383</v>
       </c>
@@ -26231,7 +26230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A385" s="41">
         <v>384</v>
       </c>
@@ -26296,7 +26295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A386" s="41">
         <v>385</v>
       </c>
@@ -26361,7 +26360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A387" s="41">
         <v>386</v>
       </c>
@@ -26426,7 +26425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A388" s="41">
         <v>387</v>
       </c>
@@ -26491,7 +26490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A389" s="41">
         <v>388</v>
       </c>
@@ -26556,7 +26555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A390" s="41">
         <v>389</v>
       </c>
@@ -26621,7 +26620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A391" s="41">
         <v>390</v>
       </c>
@@ -26686,7 +26685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A392" s="41">
         <v>391</v>
       </c>
@@ -26751,7 +26750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A393" s="41">
         <v>392</v>
       </c>
@@ -26816,7 +26815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A394" s="41">
         <v>393</v>
       </c>
@@ -26881,7 +26880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A395" s="41">
         <v>394</v>
       </c>
@@ -26946,7 +26945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A396" s="41">
         <v>395</v>
       </c>
@@ -27011,7 +27010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A397" s="41">
         <v>396</v>
       </c>
@@ -27076,7 +27075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A398" s="41">
         <v>397</v>
       </c>
@@ -27141,7 +27140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A399" s="41">
         <v>398</v>
       </c>
@@ -27206,7 +27205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A400" s="41">
         <v>399</v>
       </c>
@@ -27271,7 +27270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A401" s="41">
         <v>400</v>
       </c>
@@ -27531,7 +27530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A405" s="41">
         <v>404</v>
       </c>
@@ -27596,7 +27595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A406" s="41">
         <v>405</v>
       </c>
@@ -27661,7 +27660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A407" s="41">
         <v>406</v>
       </c>
@@ -27726,7 +27725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A408" s="41">
         <v>407</v>
       </c>
@@ -27791,7 +27790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A409" s="41">
         <v>408</v>
       </c>
@@ -27856,7 +27855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A410" s="41">
         <v>409</v>
       </c>
@@ -27921,7 +27920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A411" s="41">
         <v>410</v>
       </c>
@@ -27986,7 +27985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A412" s="41">
         <v>411</v>
       </c>
@@ -28051,7 +28050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A413" s="41">
         <v>412</v>
       </c>
@@ -28116,7 +28115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A414" s="41">
         <v>413</v>
       </c>
@@ -28181,7 +28180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A415" s="41">
         <v>414</v>
       </c>
@@ -28246,7 +28245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A416" s="41">
         <v>415</v>
       </c>
@@ -28311,7 +28310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A417" s="41">
         <v>416</v>
       </c>
@@ -28376,7 +28375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A418" s="41">
         <v>417</v>
       </c>
@@ -28441,7 +28440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A419" s="41">
         <v>418</v>
       </c>
@@ -28506,7 +28505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A420" s="41">
         <v>419</v>
       </c>
@@ -28571,7 +28570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A421" s="41">
         <v>420</v>
       </c>
@@ -28636,7 +28635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A422" s="41">
         <v>421</v>
       </c>
@@ -28701,7 +28700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A423" s="41">
         <v>422</v>
       </c>
@@ -28766,7 +28765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A424" s="41">
         <v>423</v>
       </c>
@@ -28831,7 +28830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A425" s="41">
         <v>424</v>
       </c>
@@ -28896,7 +28895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A426" s="41">
         <v>425</v>
       </c>
@@ -28961,7 +28960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A427" s="41">
         <v>426</v>
       </c>
@@ -29026,7 +29025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A428" s="41">
         <v>427</v>
       </c>
@@ -29091,7 +29090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A429" s="41">
         <v>428</v>
       </c>
@@ -29156,7 +29155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A430" s="41">
         <v>429</v>
       </c>
@@ -29221,7 +29220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A431" s="41">
         <v>430</v>
       </c>
@@ -29286,7 +29285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A432" s="41">
         <v>431</v>
       </c>
@@ -29351,7 +29350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A433" s="41">
         <v>432</v>
       </c>
@@ -29416,7 +29415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A434" s="41">
         <v>433</v>
       </c>
@@ -29481,7 +29480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A435" s="41">
         <v>434</v>
       </c>
@@ -29546,7 +29545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A436" s="41">
         <v>435</v>
       </c>
@@ -29611,7 +29610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A437" s="41">
         <v>436</v>
       </c>
@@ -29676,7 +29675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A438" s="41">
         <v>437</v>
       </c>
@@ -29741,7 +29740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A439" s="41">
         <v>438</v>
       </c>
@@ -29806,7 +29805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A440" s="41">
         <v>439</v>
       </c>
@@ -29871,7 +29870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A441" s="41">
         <v>440</v>
       </c>
@@ -29936,7 +29935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A442" s="41">
         <v>441</v>
       </c>
@@ -30001,7 +30000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A443" s="41">
         <v>442</v>
       </c>
@@ -30066,7 +30065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A444" s="41">
         <v>443</v>
       </c>
@@ -30131,7 +30130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A445" s="41">
         <v>444</v>
       </c>
@@ -30196,7 +30195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A446" s="41">
         <v>445</v>
       </c>
@@ -30261,7 +30260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A447" s="41">
         <v>446</v>
       </c>
@@ -30326,7 +30325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A448" s="41">
         <v>447</v>
       </c>
@@ -30391,7 +30390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A449" s="41">
         <v>448</v>
       </c>
@@ -30456,7 +30455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A450" s="41">
         <v>449</v>
       </c>
@@ -30521,7 +30520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A451" s="41">
         <v>450</v>
       </c>
@@ -30586,7 +30585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A452" s="41">
         <v>451</v>
       </c>
@@ -30651,7 +30650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A453" s="41">
         <v>452</v>
       </c>
@@ -30716,7 +30715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A454" s="41">
         <v>453</v>
       </c>
@@ -30781,7 +30780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A455" s="41">
         <v>454</v>
       </c>
@@ -30846,7 +30845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A456" s="41">
         <v>455</v>
       </c>
@@ -30911,7 +30910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A457" s="41">
         <v>456</v>
       </c>
@@ -30976,7 +30975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A458" s="41">
         <v>457</v>
       </c>
@@ -31041,7 +31040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A459" s="41">
         <v>458</v>
       </c>
@@ -31106,7 +31105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A460" s="41">
         <v>459</v>
       </c>
@@ -31171,7 +31170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A461" s="41">
         <v>460</v>
       </c>
@@ -31236,7 +31235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A462" s="41">
         <v>461</v>
       </c>
@@ -31301,7 +31300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A463" s="41">
         <v>462</v>
       </c>
@@ -31366,7 +31365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A464" s="41">
         <v>463</v>
       </c>
@@ -31431,7 +31430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A465" s="41">
         <v>464</v>
       </c>
@@ -31496,7 +31495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A466" s="41">
         <v>465</v>
       </c>
@@ -31561,7 +31560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A467" s="41">
         <v>466</v>
       </c>
@@ -31626,7 +31625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A468" s="41">
         <v>467</v>
       </c>
@@ -31691,7 +31690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A469" s="41">
         <v>468</v>
       </c>
@@ -31756,7 +31755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A470" s="41">
         <v>469</v>
       </c>
@@ -31821,7 +31820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A471" s="41">
         <v>470</v>
       </c>
@@ -31886,7 +31885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A472" s="41">
         <v>471</v>
       </c>
@@ -31951,7 +31950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A473" s="41">
         <v>472</v>
       </c>
@@ -32016,7 +32015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A474" s="41">
         <v>473</v>
       </c>
@@ -32081,7 +32080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A475" s="41">
         <v>474</v>
       </c>
@@ -32146,7 +32145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A476" s="41">
         <v>475</v>
       </c>
@@ -32211,7 +32210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A477" s="41">
         <v>476</v>
       </c>
@@ -32276,7 +32275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A478" s="41">
         <v>477</v>
       </c>
@@ -32341,7 +32340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A479" s="41">
         <v>478</v>
       </c>
@@ -32406,7 +32405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A480" s="41">
         <v>479</v>
       </c>
@@ -32471,7 +32470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A481" s="41">
         <v>480</v>
       </c>
@@ -32536,7 +32535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A482" s="41">
         <v>481</v>
       </c>
@@ -32601,7 +32600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A483" s="41">
         <v>482</v>
       </c>
@@ -32666,7 +32665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A484" s="41">
         <v>483</v>
       </c>
@@ -32731,7 +32730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A485" s="41">
         <v>484</v>
       </c>
@@ -32796,7 +32795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A486" s="41">
         <v>485</v>
       </c>
@@ -32861,7 +32860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A487" s="41">
         <v>486</v>
       </c>
@@ -32926,7 +32925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A488" s="41">
         <v>487</v>
       </c>
@@ -32991,7 +32990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A489" s="41">
         <v>488</v>
       </c>
@@ -33056,7 +33055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A490" s="41">
         <v>489</v>
       </c>
@@ -33121,7 +33120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A491" s="41">
         <v>490</v>
       </c>
@@ -33186,7 +33185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A492" s="41">
         <v>491</v>
       </c>
@@ -33251,7 +33250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A493" s="41">
         <v>492</v>
       </c>
@@ -33316,7 +33315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A494" s="41">
         <v>493</v>
       </c>
@@ -33381,7 +33380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A495" s="41">
         <v>494</v>
       </c>
@@ -33446,7 +33445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A496" s="41">
         <v>495</v>
       </c>
@@ -33511,7 +33510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:21" s="35" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:21" s="35" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A497" s="41">
         <v>496</v>
       </c>
@@ -33576,7 +33575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:21" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A498" s="41">
         <v>497</v>
       </c>
@@ -33641,7 +33640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A499" s="41">
         <v>498</v>
       </c>
@@ -33706,7 +33705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A500" s="41">
         <v>499</v>
       </c>
@@ -33771,7 +33770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A501" s="41">
         <v>500</v>
       </c>
@@ -33836,7 +33835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A502" s="41">
         <v>501</v>
       </c>
@@ -33901,7 +33900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A503" s="41">
         <v>502</v>
       </c>
@@ -33966,7 +33965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A504" s="41">
         <v>503</v>
       </c>
@@ -34031,7 +34030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A505" s="41">
         <v>504</v>
       </c>
@@ -34096,7 +34095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A506" s="41">
         <v>505</v>
       </c>
@@ -34161,7 +34160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A507" s="41">
         <v>506</v>
       </c>
@@ -34226,7 +34225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A508" s="41">
         <v>507</v>
       </c>
@@ -34291,7 +34290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A509" s="41">
         <v>508</v>
       </c>
@@ -34356,7 +34355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A510" s="41">
         <v>509</v>
       </c>
@@ -34421,7 +34420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A511" s="41">
         <v>510</v>
       </c>
@@ -34486,7 +34485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A512" s="41">
         <v>511</v>
       </c>
@@ -34551,7 +34550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A513" s="41">
         <v>512</v>
       </c>
@@ -34616,7 +34615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A514" s="41">
         <v>513</v>
       </c>
@@ -34681,7 +34680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A515" s="41">
         <v>514</v>
       </c>
@@ -34746,7 +34745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A516" s="41">
         <v>515</v>
       </c>
@@ -34811,7 +34810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A517" s="41">
         <v>516</v>
       </c>
@@ -34876,7 +34875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A518" s="41">
         <v>517</v>
       </c>
@@ -34941,7 +34940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A519" s="41">
         <v>518</v>
       </c>
@@ -35006,7 +35005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A520" s="41">
         <v>519</v>
       </c>
@@ -35071,7 +35070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A521" s="41">
         <v>520</v>
       </c>
@@ -35136,7 +35135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A522" s="41">
         <v>521</v>
       </c>
@@ -35201,7 +35200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A523" s="41">
         <v>522</v>
       </c>
@@ -35266,7 +35265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A524" s="41">
         <v>523</v>
       </c>
@@ -35331,7 +35330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A525" s="41">
         <v>524</v>
       </c>
@@ -35591,7 +35590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A529" s="41">
         <v>528</v>
       </c>
@@ -35656,7 +35655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A530" s="41">
         <v>529</v>
       </c>
@@ -35721,7 +35720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A531" s="41">
         <v>530</v>
       </c>
@@ -35786,7 +35785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A532" s="41">
         <v>531</v>
       </c>
@@ -35851,7 +35850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A533" s="41">
         <v>532</v>
       </c>
@@ -35916,7 +35915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A534" s="41">
         <v>533</v>
       </c>
@@ -35981,7 +35980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A535" s="41">
         <v>534</v>
       </c>
@@ -36046,7 +36045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A536" s="41">
         <v>535</v>
       </c>
@@ -36111,7 +36110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A537" s="41">
         <v>536</v>
       </c>
@@ -36176,7 +36175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A538" s="41">
         <v>537</v>
       </c>
@@ -36241,7 +36240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A539" s="41">
         <v>538</v>
       </c>
@@ -36306,7 +36305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A540" s="41">
         <v>539</v>
       </c>
@@ -36371,7 +36370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A541" s="41">
         <v>540</v>
       </c>
@@ -36436,7 +36435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A542" s="41">
         <v>541</v>
       </c>
@@ -36501,7 +36500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A543" s="41">
         <v>542</v>
       </c>
@@ -36566,7 +36565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A544" s="41">
         <v>543</v>
       </c>
@@ -36631,7 +36630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A545" s="41">
         <v>544</v>
       </c>
@@ -36696,7 +36695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A546" s="41">
         <v>545</v>
       </c>
@@ -36761,7 +36760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A547" s="41">
         <v>546</v>
       </c>
@@ -36826,7 +36825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A548" s="41">
         <v>547</v>
       </c>
@@ -36891,7 +36890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A549" s="41">
         <v>548</v>
       </c>
@@ -36956,7 +36955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A550" s="41">
         <v>549</v>
       </c>
@@ -37021,7 +37020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A551" s="41">
         <v>550</v>
       </c>
@@ -37086,7 +37085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A552" s="41">
         <v>551</v>
       </c>
@@ -37151,7 +37150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A553" s="41">
         <v>552</v>
       </c>
@@ -37216,7 +37215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A554" s="41">
         <v>553</v>
       </c>
@@ -37281,7 +37280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A555" s="41">
         <v>554</v>
       </c>
@@ -37346,7 +37345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A556" s="41">
         <v>555</v>
       </c>
@@ -37411,7 +37410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A557" s="41">
         <v>556</v>
       </c>
@@ -37476,7 +37475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A558" s="41">
         <v>557</v>
       </c>
@@ -37541,7 +37540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A559" s="41">
         <v>558</v>
       </c>
@@ -37606,7 +37605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A560" s="41">
         <v>559</v>
       </c>
@@ -37671,7 +37670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A561" s="41">
         <v>560</v>
       </c>
@@ -37736,7 +37735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A562" s="41">
         <v>561</v>
       </c>
@@ -37801,7 +37800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A563" s="41">
         <v>562</v>
       </c>
@@ -37866,7 +37865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A564" s="41">
         <v>563</v>
       </c>
@@ -37931,7 +37930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A565" s="41">
         <v>564</v>
       </c>
@@ -37996,7 +37995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A566" s="41">
         <v>565</v>
       </c>
@@ -38061,7 +38060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A567" s="41">
         <v>566</v>
       </c>
@@ -38126,7 +38125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A568" s="41">
         <v>567</v>
       </c>
@@ -38191,7 +38190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A569" s="41">
         <v>568</v>
       </c>
@@ -38256,7 +38255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A570" s="41">
         <v>569</v>
       </c>
@@ -38321,7 +38320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A571" s="41">
         <v>570</v>
       </c>
@@ -38386,7 +38385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A572" s="41">
         <v>571</v>
       </c>
@@ -38451,7 +38450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A573" s="41">
         <v>572</v>
       </c>
@@ -38516,7 +38515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A574" s="41">
         <v>573</v>
       </c>
@@ -38581,7 +38580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A575" s="41">
         <v>574</v>
       </c>
@@ -38646,7 +38645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A576" s="41">
         <v>575</v>
       </c>
@@ -38711,7 +38710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A577" s="41">
         <v>576</v>
       </c>
@@ -38776,7 +38775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A578" s="41">
         <v>577</v>
       </c>
@@ -38841,7 +38840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A579" s="41">
         <v>578</v>
       </c>
@@ -38906,7 +38905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A580" s="41">
         <v>579</v>
       </c>
@@ -38971,7 +38970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A581" s="41">
         <v>580</v>
       </c>
@@ -39036,7 +39035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A582" s="41">
         <v>581</v>
       </c>
@@ -39101,7 +39100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A583" s="41">
         <v>582</v>
       </c>
@@ -39166,7 +39165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A584" s="41">
         <v>583</v>
       </c>
@@ -39231,7 +39230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A585" s="41">
         <v>584</v>
       </c>
@@ -39296,7 +39295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A586" s="41">
         <v>585</v>
       </c>
@@ -39361,7 +39360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A587" s="41">
         <v>586</v>
       </c>
@@ -39426,7 +39425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A588" s="41">
         <v>587</v>
       </c>
@@ -39491,7 +39490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A589" s="41">
         <v>588</v>
       </c>
@@ -39556,7 +39555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A590" s="41">
         <v>589</v>
       </c>
@@ -39621,7 +39620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A591" s="41">
         <v>590</v>
       </c>
@@ -39686,7 +39685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A592" s="41">
         <v>591</v>
       </c>
@@ -39751,7 +39750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A593" s="41">
         <v>592</v>
       </c>
@@ -39816,7 +39815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A594" s="41">
         <v>593</v>
       </c>
@@ -39881,7 +39880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A595" s="41">
         <v>594</v>
       </c>
@@ -39946,7 +39945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A596" s="41">
         <v>595</v>
       </c>
@@ -40011,7 +40010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A597" s="41">
         <v>596</v>
       </c>
@@ -40076,7 +40075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A598" s="41">
         <v>597</v>
       </c>
@@ -40141,7 +40140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A599" s="41">
         <v>598</v>
       </c>
@@ -40206,7 +40205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A600" s="41">
         <v>599</v>
       </c>
@@ -40271,7 +40270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A601" s="41">
         <v>600</v>
       </c>
@@ -40336,7 +40335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A602" s="41">
         <v>601</v>
       </c>
@@ -40401,7 +40400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A603" s="41">
         <v>602</v>
       </c>
@@ -40466,7 +40465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A604" s="41">
         <v>603</v>
       </c>
@@ -40531,7 +40530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A605" s="41">
         <v>604</v>
       </c>
@@ -40596,7 +40595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A606" s="41">
         <v>605</v>
       </c>
@@ -40661,7 +40660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A607" s="41">
         <v>606</v>
       </c>
@@ -40726,7 +40725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A608" s="41">
         <v>607</v>
       </c>
@@ -40791,7 +40790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A609" s="41">
         <v>608</v>
       </c>
@@ -40856,7 +40855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A610" s="41">
         <v>609</v>
       </c>
@@ -40921,7 +40920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A611" s="41">
         <v>610</v>
       </c>
@@ -40986,7 +40985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A612" s="41">
         <v>611</v>
       </c>
@@ -41051,7 +41050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A613" s="41">
         <v>612</v>
       </c>
@@ -41116,7 +41115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A614" s="41">
         <v>613</v>
       </c>
@@ -41181,7 +41180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A615" s="41">
         <v>614</v>
       </c>
@@ -41246,7 +41245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A616" s="41">
         <v>615</v>
       </c>
@@ -41311,7 +41310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A617" s="41">
         <v>616</v>
       </c>
@@ -41376,7 +41375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A618" s="41">
         <v>617</v>
       </c>
@@ -41441,7 +41440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A619" s="41">
         <v>618</v>
       </c>
@@ -41506,7 +41505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A620" s="41">
         <v>619</v>
       </c>
@@ -41571,7 +41570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A621" s="41">
         <v>620</v>
       </c>
@@ -41636,7 +41635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A622" s="41">
         <v>621</v>
       </c>
@@ -41701,7 +41700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A623" s="41">
         <v>622</v>
       </c>
@@ -41766,7 +41765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A624" s="41">
         <v>623</v>
       </c>
@@ -41831,7 +41830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A625" s="41">
         <v>624</v>
       </c>
@@ -41896,7 +41895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A626" s="41">
         <v>625</v>
       </c>
@@ -41961,7 +41960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A627" s="41">
         <v>626</v>
       </c>
@@ -42026,7 +42025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A628" s="41">
         <v>627</v>
       </c>
@@ -42091,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A629" s="41">
         <v>628</v>
       </c>
@@ -42156,7 +42155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A630" s="41">
         <v>629</v>
       </c>
@@ -42221,7 +42220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A631" s="41">
         <v>630</v>
       </c>
@@ -42286,7 +42285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A632" s="41">
         <v>631</v>
       </c>
@@ -42351,7 +42350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A633" s="41">
         <v>632</v>
       </c>
@@ -42416,7 +42415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A634" s="41">
         <v>633</v>
       </c>
@@ -42481,7 +42480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A635" s="41">
         <v>634</v>
       </c>
@@ -42546,7 +42545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A636" s="41">
         <v>635</v>
       </c>
@@ -42611,7 +42610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A637" s="41">
         <v>636</v>
       </c>
@@ -42676,7 +42675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A638" s="41">
         <v>637</v>
       </c>
@@ -42741,7 +42740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A639" s="41">
         <v>638</v>
       </c>
@@ -42806,7 +42805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A640" s="41">
         <v>639</v>
       </c>
@@ -42871,7 +42870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A641" s="41">
         <v>640</v>
       </c>
@@ -42936,7 +42935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A642" s="41">
         <v>641</v>
       </c>
@@ -43001,7 +43000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A643" s="41">
         <v>642</v>
       </c>
@@ -43066,7 +43065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A644" s="41">
         <v>643</v>
       </c>
@@ -43131,7 +43130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A645" s="41">
         <v>644</v>
       </c>
@@ -43196,7 +43195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A646" s="41">
         <v>645</v>
       </c>
@@ -43261,7 +43260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A647" s="41">
         <v>646</v>
       </c>
@@ -43326,7 +43325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A648" s="41">
         <v>647</v>
       </c>
@@ -43391,7 +43390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A649" s="41">
         <v>648</v>
       </c>
@@ -43651,7 +43650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A653" s="41">
         <v>652</v>
       </c>
@@ -43716,7 +43715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A654" s="41">
         <v>653</v>
       </c>
@@ -43781,7 +43780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A655" s="41">
         <v>654</v>
       </c>
@@ -43846,7 +43845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A656" s="41">
         <v>655</v>
       </c>
@@ -43911,7 +43910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A657" s="41">
         <v>656</v>
       </c>
@@ -43976,7 +43975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A658" s="41">
         <v>657</v>
       </c>
@@ -44041,7 +44040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A659" s="41">
         <v>658</v>
       </c>
@@ -44106,7 +44105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A660" s="41">
         <v>659</v>
       </c>
@@ -44171,7 +44170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A661" s="41">
         <v>660</v>
       </c>
@@ -44236,7 +44235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A662" s="41">
         <v>661</v>
       </c>
@@ -44301,7 +44300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A663" s="41">
         <v>662</v>
       </c>
@@ -44366,7 +44365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A664" s="41">
         <v>663</v>
       </c>
@@ -44431,7 +44430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A665" s="41">
         <v>664</v>
       </c>
@@ -44496,7 +44495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A666" s="41">
         <v>665</v>
       </c>
@@ -44561,7 +44560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A667" s="41">
         <v>666</v>
       </c>
@@ -44626,7 +44625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A668" s="41">
         <v>667</v>
       </c>
@@ -44691,7 +44690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A669" s="41">
         <v>668</v>
       </c>
@@ -44756,7 +44755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A670" s="41">
         <v>669</v>
       </c>
@@ -44821,7 +44820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A671" s="41">
         <v>670</v>
       </c>
@@ -44886,7 +44885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A672" s="41">
         <v>671</v>
       </c>
@@ -44951,7 +44950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A673" s="41">
         <v>672</v>
       </c>
@@ -45016,7 +45015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A674" s="41">
         <v>673</v>
       </c>
@@ -45081,7 +45080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A675" s="41">
         <v>674</v>
       </c>
@@ -45146,7 +45145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A676" s="41">
         <v>675</v>
       </c>
@@ -45211,7 +45210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A677" s="41">
         <v>676</v>
       </c>
@@ -45276,7 +45275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A678" s="41">
         <v>677</v>
       </c>
@@ -45341,7 +45340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A679" s="41">
         <v>678</v>
       </c>
@@ -45406,7 +45405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A680" s="41">
         <v>679</v>
       </c>
@@ -45471,7 +45470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A681" s="41">
         <v>680</v>
       </c>
@@ -45536,7 +45535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A682" s="41">
         <v>681</v>
       </c>
@@ -45601,7 +45600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A683" s="41">
         <v>682</v>
       </c>
@@ -45666,7 +45665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A684" s="41">
         <v>683</v>
       </c>
@@ -45731,7 +45730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A685" s="41">
         <v>684</v>
       </c>
@@ -45796,7 +45795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A686" s="41">
         <v>685</v>
       </c>
@@ -45861,7 +45860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A687" s="41">
         <v>686</v>
       </c>
@@ -45926,7 +45925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A688" s="41">
         <v>687</v>
       </c>
@@ -45991,7 +45990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A689" s="41">
         <v>688</v>
       </c>
@@ -46056,7 +46055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A690" s="41">
         <v>689</v>
       </c>
@@ -46121,7 +46120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A691" s="41">
         <v>690</v>
       </c>
@@ -46186,7 +46185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A692" s="41">
         <v>691</v>
       </c>
@@ -46251,7 +46250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A693" s="41">
         <v>692</v>
       </c>
@@ -46316,7 +46315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A694" s="41">
         <v>693</v>
       </c>
@@ -46381,7 +46380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A695" s="41">
         <v>694</v>
       </c>
@@ -46446,7 +46445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A696" s="41">
         <v>695</v>
       </c>
@@ -46511,7 +46510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A697" s="41">
         <v>696</v>
       </c>
@@ -46576,7 +46575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A698" s="41">
         <v>697</v>
       </c>
@@ -46641,7 +46640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A699" s="41">
         <v>698</v>
       </c>
@@ -46706,7 +46705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A700" s="41">
         <v>699</v>
       </c>
@@ -46771,7 +46770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A701" s="41">
         <v>700</v>
       </c>
@@ -46836,7 +46835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A702" s="41">
         <v>701</v>
       </c>
@@ -46901,7 +46900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A703" s="41">
         <v>702</v>
       </c>
@@ -46966,7 +46965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A704" s="41">
         <v>703</v>
       </c>
@@ -47031,7 +47030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A705" s="41">
         <v>704</v>
       </c>
@@ -47096,7 +47095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A706" s="41">
         <v>705</v>
       </c>
@@ -47161,7 +47160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A707" s="41">
         <v>706</v>
       </c>
@@ -47226,7 +47225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A708" s="41">
         <v>707</v>
       </c>
@@ -47291,7 +47290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A709" s="41">
         <v>708</v>
       </c>
@@ -47356,7 +47355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A710" s="41">
         <v>709</v>
       </c>
@@ -47421,7 +47420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A711" s="41">
         <v>710</v>
       </c>
@@ -47486,7 +47485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A712" s="41">
         <v>711</v>
       </c>
@@ -47551,7 +47550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A713" s="41">
         <v>712</v>
       </c>
@@ -47616,7 +47615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A714" s="41">
         <v>713</v>
       </c>
@@ -47681,7 +47680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A715" s="41">
         <v>714</v>
       </c>
@@ -47746,7 +47745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A716" s="41">
         <v>715</v>
       </c>
@@ -47811,7 +47810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A717" s="41">
         <v>716</v>
       </c>
@@ -47876,7 +47875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A718" s="41">
         <v>717</v>
       </c>
@@ -47941,7 +47940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A719" s="41">
         <v>718</v>
       </c>
@@ -48006,7 +48005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A720" s="41">
         <v>719</v>
       </c>
@@ -48071,7 +48070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A721" s="41">
         <v>720</v>
       </c>
@@ -48136,7 +48135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A722" s="41">
         <v>721</v>
       </c>
@@ -48201,7 +48200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A723" s="41">
         <v>722</v>
       </c>
@@ -48266,7 +48265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A724" s="41">
         <v>723</v>
       </c>
@@ -48331,7 +48330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A725" s="41">
         <v>724</v>
       </c>
@@ -48396,7 +48395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A726" s="41">
         <v>725</v>
       </c>
@@ -48461,7 +48460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A727" s="41">
         <v>726</v>
       </c>
@@ -48526,7 +48525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A728" s="41">
         <v>727</v>
       </c>
@@ -48591,7 +48590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A729" s="41">
         <v>728</v>
       </c>
@@ -48656,7 +48655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A730" s="41">
         <v>729</v>
       </c>
@@ -48721,7 +48720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A731" s="41">
         <v>730</v>
       </c>
@@ -48786,7 +48785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A732" s="41">
         <v>731</v>
       </c>
@@ -48851,7 +48850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A733" s="41">
         <v>732</v>
       </c>
@@ -48916,7 +48915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A734" s="41">
         <v>733</v>
       </c>
@@ -48981,7 +48980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A735" s="41">
         <v>734</v>
       </c>
@@ -49046,7 +49045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A736" s="41">
         <v>735</v>
       </c>
@@ -49111,7 +49110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A737" s="41">
         <v>736</v>
       </c>
@@ -49176,7 +49175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A738" s="41">
         <v>737</v>
       </c>
@@ -49241,7 +49240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A739" s="41">
         <v>738</v>
       </c>
@@ -49306,7 +49305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A740" s="41">
         <v>739</v>
       </c>
@@ -49371,7 +49370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A741" s="41">
         <v>740</v>
       </c>
@@ -49436,7 +49435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A742" s="41">
         <v>741</v>
       </c>
@@ -49501,7 +49500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A743" s="41">
         <v>742</v>
       </c>
@@ -49566,7 +49565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A744" s="41">
         <v>743</v>
       </c>
@@ -49631,7 +49630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:21" s="24" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:21" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A745" s="41">
         <v>744</v>
       </c>
@@ -49696,7 +49695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A746" s="41">
         <v>745</v>
       </c>
@@ -49761,7 +49760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A747" s="41">
         <v>746</v>
       </c>
@@ -49826,7 +49825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A748" s="41">
         <v>747</v>
       </c>
@@ -49891,7 +49890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A749" s="41">
         <v>748</v>
       </c>
@@ -49956,7 +49955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A750" s="41">
         <v>749</v>
       </c>
@@ -50021,7 +50020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A751" s="41">
         <v>750</v>
       </c>
@@ -50086,7 +50085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A752" s="41">
         <v>751</v>
       </c>
@@ -50151,7 +50150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A753" s="41">
         <v>752</v>
       </c>
@@ -50216,7 +50215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A754" s="41">
         <v>753</v>
       </c>
@@ -50281,7 +50280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A755" s="41">
         <v>754</v>
       </c>
@@ -50346,7 +50345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A756" s="41">
         <v>755</v>
       </c>
@@ -50411,7 +50410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A757" s="41">
         <v>756</v>
       </c>
@@ -50476,7 +50475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A758" s="41">
         <v>757</v>
       </c>
@@ -50541,7 +50540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A759" s="41">
         <v>758</v>
       </c>
@@ -50606,7 +50605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A760" s="41">
         <v>759</v>
       </c>
@@ -50671,7 +50670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A761" s="41">
         <v>760</v>
       </c>
@@ -50736,7 +50735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A762" s="41">
         <v>761</v>
       </c>
@@ -50801,7 +50800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A763" s="41">
         <v>762</v>
       </c>
@@ -50866,7 +50865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A764" s="41">
         <v>763</v>
       </c>
@@ -50931,7 +50930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A765" s="41">
         <v>764</v>
       </c>
@@ -50996,7 +50995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A766" s="41">
         <v>765</v>
       </c>
@@ -51061,7 +51060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A767" s="41">
         <v>766</v>
       </c>
@@ -51126,7 +51125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A768" s="41">
         <v>767</v>
       </c>
@@ -51191,7 +51190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A769" s="41">
         <v>768</v>
       </c>
@@ -51256,7 +51255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A770" s="41">
         <v>769</v>
       </c>
@@ -51321,7 +51320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A771" s="41">
         <v>770</v>
       </c>
@@ -51386,7 +51385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A772" s="41">
         <v>771</v>
       </c>
@@ -51451,7 +51450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A773" s="41">
         <v>772</v>
       </c>
@@ -51711,7 +51710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A777" s="41">
         <v>776</v>
       </c>
@@ -51776,7 +51775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A778" s="41">
         <v>777</v>
       </c>
@@ -51841,7 +51840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A779" s="41">
         <v>778</v>
       </c>
@@ -51906,7 +51905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A780" s="41">
         <v>779</v>
       </c>
@@ -51971,7 +51970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A781" s="41">
         <v>780</v>
       </c>
@@ -52036,7 +52035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A782" s="41">
         <v>781</v>
       </c>
@@ -52101,7 +52100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A783" s="41">
         <v>782</v>
       </c>
@@ -52166,7 +52165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A784" s="41">
         <v>783</v>
       </c>
@@ -52231,7 +52230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A785" s="41">
         <v>784</v>
       </c>
@@ -52296,7 +52295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A786" s="41">
         <v>785</v>
       </c>
@@ -52361,7 +52360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A787" s="41">
         <v>786</v>
       </c>
@@ -52426,7 +52425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A788" s="41">
         <v>787</v>
       </c>
@@ -52491,7 +52490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A789" s="41">
         <v>788</v>
       </c>
@@ -52556,7 +52555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A790" s="41">
         <v>789</v>
       </c>
@@ -52621,7 +52620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A791" s="41">
         <v>790</v>
       </c>
@@ -52686,7 +52685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A792" s="41">
         <v>791</v>
       </c>
@@ -52751,7 +52750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A793" s="41">
         <v>792</v>
       </c>
@@ -52816,7 +52815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A794" s="41">
         <v>793</v>
       </c>
@@ -52881,7 +52880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A795" s="41">
         <v>794</v>
       </c>
@@ -52946,7 +52945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A796" s="41">
         <v>795</v>
       </c>
@@ -53011,7 +53010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A797" s="41">
         <v>796</v>
       </c>
@@ -53076,7 +53075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A798" s="41">
         <v>797</v>
       </c>
@@ -53141,7 +53140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A799" s="41">
         <v>798</v>
       </c>
@@ -53206,7 +53205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A800" s="41">
         <v>799</v>
       </c>
@@ -53271,7 +53270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A801" s="41">
         <v>800</v>
       </c>
@@ -53336,7 +53335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A802" s="41">
         <v>801</v>
       </c>
@@ -53401,7 +53400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A803" s="41">
         <v>802</v>
       </c>
@@ -53466,7 +53465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A804" s="41">
         <v>803</v>
       </c>
@@ -53531,7 +53530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A805" s="41">
         <v>804</v>
       </c>
@@ -53596,7 +53595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A806" s="41">
         <v>805</v>
       </c>
@@ -53661,7 +53660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:21" s="24" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:21" s="24" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A807" s="41">
         <v>806</v>
       </c>
@@ -53726,7 +53725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A808" s="41">
         <v>807</v>
       </c>
@@ -53791,7 +53790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A809" s="41">
         <v>808</v>
       </c>
@@ -53856,7 +53855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A810" s="41">
         <v>809</v>
       </c>
@@ -53921,7 +53920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A811" s="41">
         <v>810</v>
       </c>
@@ -53986,7 +53985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A812" s="41">
         <v>811</v>
       </c>
@@ -54051,7 +54050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A813" s="41">
         <v>812</v>
       </c>
@@ -54116,7 +54115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A814" s="41">
         <v>813</v>
       </c>
@@ -54181,7 +54180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A815" s="41">
         <v>814</v>
       </c>
@@ -54246,7 +54245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A816" s="41">
         <v>815</v>
       </c>
@@ -54311,7 +54310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A817" s="41">
         <v>816</v>
       </c>
@@ -54376,7 +54375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A818" s="41">
         <v>817</v>
       </c>
@@ -54441,7 +54440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A819" s="41">
         <v>818</v>
       </c>
@@ -54506,7 +54505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A820" s="41">
         <v>819</v>
       </c>
@@ -54571,7 +54570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A821" s="41">
         <v>820</v>
       </c>
@@ -54636,7 +54635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A822" s="41">
         <v>821</v>
       </c>
@@ -54701,7 +54700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A823" s="41">
         <v>822</v>
       </c>
@@ -54766,7 +54765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A824" s="41">
         <v>823</v>
       </c>
@@ -54831,7 +54830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A825" s="41">
         <v>824</v>
       </c>
@@ -54896,7 +54895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A826" s="41">
         <v>825</v>
       </c>
@@ -54961,7 +54960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A827" s="41">
         <v>826</v>
       </c>
@@ -55026,7 +55025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A828" s="41">
         <v>827</v>
       </c>
@@ -55091,7 +55090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A829" s="41">
         <v>828</v>
       </c>
@@ -55156,7 +55155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A830" s="41">
         <v>829</v>
       </c>
@@ -55221,7 +55220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A831" s="41">
         <v>830</v>
       </c>
@@ -55286,7 +55285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A832" s="41">
         <v>831</v>
       </c>
@@ -55351,7 +55350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A833" s="41">
         <v>832</v>
       </c>
@@ -55416,7 +55415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A834" s="41">
         <v>833</v>
       </c>
@@ -55481,7 +55480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A835" s="41">
         <v>834</v>
       </c>
@@ -55546,7 +55545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A836" s="41">
         <v>835</v>
       </c>
@@ -55611,7 +55610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A837" s="41">
         <v>836</v>
       </c>
@@ -55676,7 +55675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A838" s="41">
         <v>837</v>
       </c>
@@ -55741,7 +55740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A839" s="41">
         <v>838</v>
       </c>
@@ -55806,7 +55805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A840" s="41">
         <v>839</v>
       </c>
@@ -55871,7 +55870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A841" s="41">
         <v>840</v>
       </c>
@@ -55936,7 +55935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A842" s="41">
         <v>841</v>
       </c>
@@ -56001,7 +56000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A843" s="41">
         <v>842</v>
       </c>
@@ -56066,7 +56065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A844" s="41">
         <v>843</v>
       </c>
@@ -56131,7 +56130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A845" s="41">
         <v>844</v>
       </c>
@@ -56196,7 +56195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A846" s="41">
         <v>845</v>
       </c>
@@ -56261,7 +56260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A847" s="41">
         <v>846</v>
       </c>
@@ -56326,7 +56325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A848" s="41">
         <v>847</v>
       </c>
@@ -56391,7 +56390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A849" s="41">
         <v>848</v>
       </c>
@@ -56456,7 +56455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A850" s="41">
         <v>849</v>
       </c>
@@ -56521,7 +56520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A851" s="41">
         <v>850</v>
       </c>
@@ -56586,7 +56585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A852" s="41">
         <v>851</v>
       </c>
@@ -56651,7 +56650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A853" s="41">
         <v>852</v>
       </c>
@@ -56716,7 +56715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A854" s="41">
         <v>853</v>
       </c>
@@ -56781,7 +56780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A855" s="41">
         <v>854</v>
       </c>
@@ -56846,7 +56845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A856" s="41">
         <v>855</v>
       </c>
@@ -56911,7 +56910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A857" s="41">
         <v>856</v>
       </c>
@@ -56976,7 +56975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A858" s="41">
         <v>857</v>
       </c>
@@ -57041,7 +57040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A859" s="41">
         <v>858</v>
       </c>
@@ -57106,7 +57105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A860" s="41">
         <v>859</v>
       </c>
@@ -57171,7 +57170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A861" s="41">
         <v>860</v>
       </c>
@@ -57236,7 +57235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A862" s="41">
         <v>861</v>
       </c>
@@ -57301,7 +57300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A863" s="41">
         <v>862</v>
       </c>
@@ -57366,7 +57365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A864" s="41">
         <v>863</v>
       </c>
@@ -57431,7 +57430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A865" s="41">
         <v>864</v>
       </c>
@@ -57496,7 +57495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A866" s="41">
         <v>865</v>
       </c>
@@ -57561,7 +57560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="867" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A867" s="41">
         <v>866</v>
       </c>
@@ -57626,7 +57625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A868" s="41">
         <v>867</v>
       </c>
@@ -57691,7 +57690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="869" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A869" s="41">
         <v>868</v>
       </c>
@@ -57756,7 +57755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A870" s="41">
         <v>869</v>
       </c>
@@ -57821,7 +57820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A871" s="41">
         <v>870</v>
       </c>
@@ -57886,7 +57885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A872" s="41">
         <v>871</v>
       </c>
@@ -57951,7 +57950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A873" s="41">
         <v>872</v>
       </c>
@@ -58016,7 +58015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A874" s="41">
         <v>873</v>
       </c>
@@ -58081,7 +58080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A875" s="41">
         <v>874</v>
       </c>
@@ -58146,7 +58145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A876" s="41">
         <v>875</v>
       </c>
@@ -58211,7 +58210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A877" s="41">
         <v>876</v>
       </c>
@@ -58276,7 +58275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A878" s="41">
         <v>877</v>
       </c>
@@ -58341,7 +58340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A879" s="41">
         <v>878</v>
       </c>
@@ -58406,7 +58405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A880" s="41">
         <v>879</v>
       </c>
@@ -58471,7 +58470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A881" s="41">
         <v>880</v>
       </c>
@@ -58536,7 +58535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A882" s="41">
         <v>881</v>
       </c>
@@ -58601,7 +58600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A883" s="41">
         <v>882</v>
       </c>
@@ -58666,7 +58665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A884" s="41">
         <v>883</v>
       </c>
@@ -58731,7 +58730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A885" s="41">
         <v>884</v>
       </c>
@@ -58796,7 +58795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A886" s="41">
         <v>885</v>
       </c>
@@ -58861,7 +58860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A887" s="41">
         <v>886</v>
       </c>
@@ -58926,7 +58925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A888" s="41">
         <v>887</v>
       </c>
@@ -58991,7 +58990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A889" s="41">
         <v>888</v>
       </c>
@@ -59056,7 +59055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A890" s="41">
         <v>889</v>
       </c>
@@ -59121,7 +59120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A891" s="41">
         <v>890</v>
       </c>
@@ -59186,7 +59185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A892" s="41">
         <v>891</v>
       </c>
@@ -59251,7 +59250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A893" s="41">
         <v>892</v>
       </c>
@@ -59316,7 +59315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A894" s="41">
         <v>893</v>
       </c>
@@ -59381,7 +59380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A895" s="41">
         <v>894</v>
       </c>
@@ -59446,7 +59445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A896" s="41">
         <v>895</v>
       </c>
@@ -59511,7 +59510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A897" s="41">
         <v>896</v>
       </c>
@@ -59771,7 +59770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A901" s="41">
         <v>900</v>
       </c>
@@ -59836,7 +59835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A902" s="41">
         <v>901</v>
       </c>
@@ -59901,7 +59900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A903" s="41">
         <v>902</v>
       </c>
@@ -59966,7 +59965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A904" s="41">
         <v>903</v>
       </c>
@@ -60031,7 +60030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A905" s="41">
         <v>904</v>
       </c>
@@ -60096,7 +60095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A906" s="41">
         <v>905</v>
       </c>
@@ -60161,7 +60160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A907" s="41">
         <v>906</v>
       </c>
@@ -60226,7 +60225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A908" s="41">
         <v>907</v>
       </c>
@@ -60291,7 +60290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A909" s="41">
         <v>908</v>
       </c>
@@ -60356,7 +60355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A910" s="41">
         <v>909</v>
       </c>
@@ -60421,7 +60420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A911" s="41">
         <v>910</v>
       </c>
@@ -60486,7 +60485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A912" s="41">
         <v>911</v>
       </c>
@@ -60551,7 +60550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A913" s="41">
         <v>912</v>
       </c>
@@ -60616,7 +60615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A914" s="41">
         <v>913</v>
       </c>
@@ -60681,7 +60680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A915" s="41">
         <v>914</v>
       </c>
@@ -60746,7 +60745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A916" s="41">
         <v>915</v>
       </c>
@@ -60811,7 +60810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A917" s="41">
         <v>916</v>
       </c>
@@ -60876,7 +60875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A918" s="41">
         <v>917</v>
       </c>
@@ -60941,7 +60940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A919" s="41">
         <v>918</v>
       </c>
@@ -61006,7 +61005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A920" s="41">
         <v>919</v>
       </c>
@@ -61071,7 +61070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A921" s="41">
         <v>920</v>
       </c>
@@ -61136,7 +61135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A922" s="41">
         <v>921</v>
       </c>
@@ -61201,7 +61200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A923" s="41">
         <v>922</v>
       </c>
@@ -61266,7 +61265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A924" s="41">
         <v>923</v>
       </c>
@@ -61331,7 +61330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A925" s="41">
         <v>924</v>
       </c>
@@ -61396,7 +61395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A926" s="41">
         <v>925</v>
       </c>
@@ -61461,7 +61460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A927" s="41">
         <v>926</v>
       </c>
@@ -61526,7 +61525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A928" s="41">
         <v>927</v>
       </c>
@@ -61591,7 +61590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="929" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A929" s="41">
         <v>928</v>
       </c>
@@ -61656,7 +61655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A930" s="41">
         <v>929</v>
       </c>
@@ -61721,7 +61720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A931" s="41">
         <v>930</v>
       </c>
@@ -61786,7 +61785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A932" s="41">
         <v>931</v>
       </c>
@@ -61851,7 +61850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A933" s="41">
         <v>932</v>
       </c>
@@ -61916,7 +61915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A934" s="41">
         <v>933</v>
       </c>
@@ -61981,7 +61980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A935" s="41">
         <v>934</v>
       </c>
@@ -62046,7 +62045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A936" s="41">
         <v>935</v>
       </c>
@@ -62111,7 +62110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A937" s="41">
         <v>936</v>
       </c>
@@ -62176,7 +62175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A938" s="41">
         <v>937</v>
       </c>
@@ -62241,7 +62240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A939" s="41">
         <v>938</v>
       </c>
@@ -62306,7 +62305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A940" s="41">
         <v>939</v>
       </c>
@@ -62371,7 +62370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A941" s="41">
         <v>940</v>
       </c>
@@ -62436,7 +62435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A942" s="41">
         <v>941</v>
       </c>
@@ -62501,7 +62500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A943" s="41">
         <v>942</v>
       </c>
@@ -62566,7 +62565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A944" s="41">
         <v>943</v>
       </c>
@@ -62631,7 +62630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A945" s="41">
         <v>944</v>
       </c>
@@ -62696,7 +62695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A946" s="41">
         <v>945</v>
       </c>
@@ -62761,7 +62760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A947" s="41">
         <v>946</v>
       </c>
@@ -62826,7 +62825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A948" s="41">
         <v>947</v>
       </c>
@@ -62891,7 +62890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A949" s="41">
         <v>948</v>
       </c>
@@ -62956,7 +62955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A950" s="41">
         <v>949</v>
       </c>
@@ -63021,7 +63020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A951" s="41">
         <v>950</v>
       </c>
@@ -63086,7 +63085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A952" s="41">
         <v>951</v>
       </c>
@@ -63151,7 +63150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A953" s="41">
         <v>952</v>
       </c>
@@ -63216,7 +63215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A954" s="41">
         <v>953</v>
       </c>
@@ -63281,7 +63280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A955" s="41">
         <v>954</v>
       </c>
@@ -63346,7 +63345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A956" s="41">
         <v>955</v>
       </c>
@@ -63411,7 +63410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A957" s="41">
         <v>956</v>
       </c>
@@ -63476,7 +63475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A958" s="41">
         <v>957</v>
       </c>
@@ -63541,7 +63540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A959" s="41">
         <v>958</v>
       </c>
@@ -63606,7 +63605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="960" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A960" s="41">
         <v>959</v>
       </c>
@@ -63671,7 +63670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A961" s="41">
         <v>960</v>
       </c>
@@ -63736,7 +63735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A962" s="41">
         <v>961</v>
       </c>
@@ -63801,7 +63800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A963" s="41">
         <v>962</v>
       </c>
@@ -63866,7 +63865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A964" s="41">
         <v>963</v>
       </c>
@@ -63931,7 +63930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A965" s="41">
         <v>964</v>
       </c>
@@ -63996,7 +63995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A966" s="41">
         <v>965</v>
       </c>
@@ -64061,7 +64060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A967" s="41">
         <v>966</v>
       </c>
@@ -64126,7 +64125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A968" s="41">
         <v>967</v>
       </c>
@@ -64191,7 +64190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A969" s="41">
         <v>968</v>
       </c>
@@ -64256,7 +64255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A970" s="41">
         <v>969</v>
       </c>
@@ -64321,7 +64320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A971" s="41">
         <v>970</v>
       </c>
@@ -64386,7 +64385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A972" s="41">
         <v>971</v>
       </c>
@@ -64451,7 +64450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A973" s="41">
         <v>972</v>
       </c>
@@ -64516,7 +64515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A974" s="41">
         <v>973</v>
       </c>
@@ -64581,7 +64580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A975" s="41">
         <v>974</v>
       </c>
@@ -64646,7 +64645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A976" s="41">
         <v>975</v>
       </c>
@@ -64711,7 +64710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A977" s="41">
         <v>976</v>
       </c>
@@ -64776,7 +64775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A978" s="41">
         <v>977</v>
       </c>
@@ -64841,7 +64840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A979" s="41">
         <v>978</v>
       </c>
@@ -64906,7 +64905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A980" s="41">
         <v>979</v>
       </c>
@@ -64971,7 +64970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A981" s="41">
         <v>980</v>
       </c>
@@ -65036,7 +65035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A982" s="41">
         <v>981</v>
       </c>
@@ -65101,7 +65100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A983" s="41">
         <v>982</v>
       </c>
@@ -65166,7 +65165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A984" s="41">
         <v>983</v>
       </c>
@@ -65231,7 +65230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A985" s="41">
         <v>984</v>
       </c>
@@ -65296,7 +65295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A986" s="41">
         <v>985</v>
       </c>
@@ -65361,7 +65360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A987" s="41">
         <v>986</v>
       </c>
@@ -65426,7 +65425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A988" s="41">
         <v>987</v>
       </c>
@@ -65491,7 +65490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A989" s="41">
         <v>988</v>
       </c>
@@ -65556,7 +65555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A990" s="41">
         <v>989</v>
       </c>
@@ -65621,7 +65620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:21" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A991" s="41">
         <v>990</v>
       </c>
@@ -65686,7 +65685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A992" s="41">
         <v>991</v>
       </c>
@@ -65751,7 +65750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:21" s="22" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:21" s="22" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A993" s="41">
         <v>992</v>
       </c>
@@ -65816,7 +65815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B994" s="23"/>
       <c r="C994" s="23"/>
       <c r="D994" s="23"/>
@@ -65838,20 +65837,8 @@
       <c r="T994" s="23"/>
       <c r="U994" s="23"/>
     </row>
-    <row r="995" spans="1:21" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:U995" xr:uid="{F7048ECA-8700-4304-B628-8250B7DA25CD}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Natural behaviour"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="11">
-      <filters>
-        <filter val="self-assessment"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U995" xr:uid="{F7048ECA-8700-4304-B628-8250B7DA25CD}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
